--- a/Tables/Sources/gameplay/Character/CharacterStageConfig.xlsx
+++ b/Tables/Sources/gameplay/Character/CharacterStageConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -88,19 +88,22 @@
     <t>None</t>
   </si>
   <si>
-    <t>LearnKongfu_Normal</t>
+    <t>LearnKongfu|1</t>
   </si>
   <si>
     <t>EquipArmor</t>
   </si>
   <si>
-    <t>LearnKongfu_Super</t>
+    <t>LearnKongfu|2</t>
   </si>
   <si>
     <t>EquipWeapon</t>
   </si>
   <si>
-    <t>LearnKongfu_Master</t>
+    <t>LearnKongfu|3</t>
+  </si>
+  <si>
+    <t>LearnKongfu|4</t>
   </si>
   <si>
     <t>Good</t>
@@ -114,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -135,6 +138,74 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -143,7 +214,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,38 +228,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,47 +252,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,22 +268,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,49 +297,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,133 +477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,17 +521,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,6 +555,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,46 +589,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,133 +621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,7 +1110,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1118,7 +1121,7 @@
     <col min="4" max="4" width="7.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="8" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="8.125" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
@@ -1463,7 +1466,7 @@
         <v>6240</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H12" s="2">
         <v>1560399</v>
@@ -1506,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -1535,7 +1538,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
         <v>10</v>
@@ -1564,7 +1567,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2">
         <v>30</v>
@@ -1593,7 +1596,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>80</v>
@@ -1622,7 +1625,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2">
         <v>150</v>
@@ -1651,7 +1654,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2">
         <v>240</v>
@@ -1680,7 +1683,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2">
         <v>360</v>
@@ -1709,7 +1712,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2">
         <v>500</v>
@@ -1724,7 +1727,7 @@
         <v>9360</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H21" s="2">
         <v>1560399</v>
@@ -1738,7 +1741,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2">
         <v>700</v>
@@ -1767,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -1796,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2">
         <v>10</v>
@@ -1825,7 +1828,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" s="2">
         <v>30</v>
@@ -1854,7 +1857,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="2">
         <v>80</v>
@@ -1883,7 +1886,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="2">
         <v>150</v>
@@ -1912,7 +1915,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" s="2">
         <v>240</v>
@@ -1941,7 +1944,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" s="2">
         <v>360</v>
@@ -1970,7 +1973,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="2">
         <v>500</v>
@@ -1985,7 +1988,7 @@
         <v>15600</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H30" s="2">
         <v>1560399</v>
@@ -1999,7 +2002,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2">
         <v>700</v>

--- a/Tables/Sources/gameplay/Character/CharacterStageConfig.xlsx
+++ b/Tables/Sources/gameplay/Character/CharacterStageConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="25770" windowHeight="13880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -85,25 +85,31 @@
     <t>Normal</t>
   </si>
   <si>
+    <t>None|0</t>
+  </si>
+  <si>
+    <t>LearnKongfu|1</t>
+  </si>
+  <si>
+    <t>EquipArmor</t>
+  </si>
+  <si>
+    <t>LearnKongfu|2</t>
+  </si>
+  <si>
+    <t>EquipWeapon</t>
+  </si>
+  <si>
+    <t>LearnKongfu|3</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
-    <t>LearnKongfu|1</t>
-  </si>
-  <si>
-    <t>EquipArmor</t>
-  </si>
-  <si>
-    <t>LearnKongfu|2</t>
-  </si>
-  <si>
-    <t>EquipWeapon</t>
-  </si>
-  <si>
-    <t>LearnKongfu|3</t>
-  </si>
-  <si>
     <t>LearnKongfu|4</t>
+  </si>
+  <si>
+    <t>None|4</t>
   </si>
   <si>
     <t>Good</t>
@@ -118,8 +124,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -138,16 +144,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,18 +179,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,21 +205,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,47 +226,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -276,11 +243,50 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -297,187 +303,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,20 +527,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,32 +562,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,16 +585,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,24 +1116,24 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.62727272727273" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.37272727272727" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.37272727272727" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.37272727272727" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.37272727272727" style="2" customWidth="1"/>
     <col min="6" max="6" width="8" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.8727272727273" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.37272727272727" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.12727272727273" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1185,7 +1191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1437,7 +1443,7 @@
         <v>960</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H11" s="2">
         <v>239904</v>
@@ -1466,7 +1472,7 @@
         <v>6240</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H12" s="2">
         <v>1560399</v>
@@ -1495,7 +1501,7 @@
         <v>73000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H13" s="2">
         <v>12121847</v>
@@ -1509,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -1524,7 +1530,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H14" s="2">
         <v>50</v>
@@ -1538,7 +1544,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2">
         <v>10</v>
@@ -1567,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2">
         <v>30</v>
@@ -1596,7 +1602,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2">
         <v>80</v>
@@ -1625,7 +1631,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2">
         <v>150</v>
@@ -1654,7 +1660,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>240</v>
@@ -1683,7 +1689,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2">
         <v>360</v>
@@ -1698,7 +1704,7 @@
         <v>1440</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H20" s="2">
         <v>239904</v>
@@ -1712,7 +1718,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2">
         <v>500</v>
@@ -1727,7 +1733,7 @@
         <v>9360</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H21" s="2">
         <v>1560399</v>
@@ -1741,7 +1747,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2">
         <v>700</v>
@@ -1756,7 +1762,7 @@
         <v>109500</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H22" s="2">
         <v>12121847</v>
@@ -1770,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -1785,7 +1791,7 @@
         <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H23" s="2">
         <v>50</v>
@@ -1799,7 +1805,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2">
         <v>10</v>
@@ -1828,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C25" s="2">
         <v>30</v>
@@ -1857,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C26" s="2">
         <v>80</v>
@@ -1886,7 +1892,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27" s="2">
         <v>150</v>
@@ -1915,7 +1921,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C28" s="2">
         <v>240</v>
@@ -1944,7 +1950,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C29" s="2">
         <v>360</v>
@@ -1959,7 +1965,7 @@
         <v>2400</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H29" s="2">
         <v>239904</v>
@@ -1973,7 +1979,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C30" s="2">
         <v>500</v>
@@ -1988,7 +1994,7 @@
         <v>15600</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H30" s="2">
         <v>1560399</v>
@@ -2002,7 +2008,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C31" s="2">
         <v>700</v>
@@ -2017,7 +2023,7 @@
         <v>182500</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H31" s="2">
         <v>12121847</v>

--- a/Tables/Sources/gameplay/Character/CharacterStageConfig.xlsx
+++ b/Tables/Sources/gameplay/Character/CharacterStageConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30850" windowHeight="12110"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -91,31 +91,25 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>None|0</t>
+    <t>None</t>
   </si>
   <si>
     <t>LearnKongfu|1</t>
   </si>
   <si>
+    <t>EquipWeapon</t>
+  </si>
+  <si>
+    <t>LearnKongfu|2</t>
+  </si>
+  <si>
     <t>EquipArmor</t>
   </si>
   <si>
-    <t>LearnKongfu|2</t>
-  </si>
-  <si>
-    <t>EquipWeapon</t>
-  </si>
-  <si>
     <t>LearnKongfu|3</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>LearnKongfu|4</t>
-  </si>
-  <si>
-    <t>None|4</t>
   </si>
   <si>
     <t>Good</t>
@@ -131,8 +125,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -151,75 +145,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,15 +173,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,9 +205,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,9 +250,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,187 +303,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,6 +508,56 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,17 +588,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -576,55 +609,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,24 +1116,24 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A31"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="5.62727272727273" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.37272727272727" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.37272727272727" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.37272727272727" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.37272727272727" style="2" customWidth="1"/>
+    <col min="1" max="2" width="5.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="8" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.8727272727273" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.37272727272727" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.12727272727273" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.125" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,7 +1165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1203,7 +1197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:10">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1235,7 +1229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:10">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1325,10 +1319,10 @@
         <v>25</v>
       </c>
       <c r="I6" s="2">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="J6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1357,10 +1351,10 @@
         <v>26</v>
       </c>
       <c r="I7" s="2">
-        <v>309</v>
+        <v>198</v>
       </c>
       <c r="J7" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1389,10 +1383,10 @@
         <v>27</v>
       </c>
       <c r="I8" s="2">
-        <v>1346</v>
+        <v>590</v>
       </c>
       <c r="J8" s="2">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1421,10 +1415,10 @@
         <v>28</v>
       </c>
       <c r="I9" s="2">
-        <v>6884</v>
+        <v>1702</v>
       </c>
       <c r="J9" s="2">
-        <v>207</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1453,10 +1447,10 @@
         <v>29</v>
       </c>
       <c r="I10" s="2">
-        <v>37961</v>
+        <v>5674</v>
       </c>
       <c r="J10" s="2">
-        <v>1025</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1482,13 +1476,13 @@
         <v>960</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I11" s="2">
-        <v>239904</v>
+        <v>18947</v>
       </c>
       <c r="J11" s="2">
-        <v>5758</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1514,13 +1508,13 @@
         <v>6240</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" s="2">
-        <v>1560399</v>
+        <v>70108</v>
       </c>
       <c r="J12" s="2">
-        <v>32768</v>
+        <v>841</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1546,13 +1540,13 @@
         <v>73000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I13" s="2">
-        <v>12121847</v>
+        <v>284960</v>
       </c>
       <c r="J13" s="2">
-        <v>218193</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1563,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -1578,7 +1572,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I14" s="2">
         <v>50</v>
@@ -1595,7 +1589,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2">
         <v>10</v>
@@ -1613,10 +1607,10 @@
         <v>25</v>
       </c>
       <c r="I15" s="2">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="J15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1627,7 +1621,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>30</v>
@@ -1645,10 +1639,10 @@
         <v>26</v>
       </c>
       <c r="I16" s="2">
-        <v>309</v>
+        <v>198</v>
       </c>
       <c r="J16" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1659,7 +1653,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2">
         <v>80</v>
@@ -1677,10 +1671,10 @@
         <v>27</v>
       </c>
       <c r="I17" s="2">
-        <v>1346</v>
+        <v>590</v>
       </c>
       <c r="J17" s="2">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1691,7 +1685,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2">
         <v>150</v>
@@ -1709,10 +1703,10 @@
         <v>28</v>
       </c>
       <c r="I18" s="2">
-        <v>6884</v>
+        <v>1702</v>
       </c>
       <c r="J18" s="2">
-        <v>207</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1723,7 +1717,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2">
         <v>240</v>
@@ -1741,10 +1735,10 @@
         <v>29</v>
       </c>
       <c r="I19" s="2">
-        <v>37961</v>
+        <v>5674</v>
       </c>
       <c r="J19" s="2">
-        <v>1025</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1755,7 +1749,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2">
         <v>360</v>
@@ -1770,13 +1764,13 @@
         <v>1440</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I20" s="2">
-        <v>239904</v>
+        <v>18947</v>
       </c>
       <c r="J20" s="2">
-        <v>5758</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1787,7 +1781,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2">
         <v>500</v>
@@ -1802,13 +1796,13 @@
         <v>9360</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I21" s="2">
-        <v>1560399</v>
+        <v>70108</v>
       </c>
       <c r="J21" s="2">
-        <v>32768</v>
+        <v>841</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1819,7 +1813,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2">
         <v>700</v>
@@ -1834,13 +1828,13 @@
         <v>109500</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I22" s="2">
-        <v>12121847</v>
+        <v>284960</v>
       </c>
       <c r="J22" s="2">
-        <v>218193</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1851,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -1866,7 +1860,7 @@
         <v>5</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I23" s="2">
         <v>50</v>
@@ -1883,7 +1877,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
         <v>10</v>
@@ -1901,10 +1895,10 @@
         <v>25</v>
       </c>
       <c r="I24" s="2">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="J24" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1915,7 +1909,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2">
         <v>30</v>
@@ -1933,10 +1927,10 @@
         <v>26</v>
       </c>
       <c r="I25" s="2">
-        <v>309</v>
+        <v>198</v>
       </c>
       <c r="J25" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1947,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>80</v>
@@ -1965,10 +1959,10 @@
         <v>27</v>
       </c>
       <c r="I26" s="2">
-        <v>1346</v>
+        <v>590</v>
       </c>
       <c r="J26" s="2">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1979,7 +1973,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2">
         <v>150</v>
@@ -1997,10 +1991,10 @@
         <v>28</v>
       </c>
       <c r="I27" s="2">
-        <v>6884</v>
+        <v>1702</v>
       </c>
       <c r="J27" s="2">
-        <v>207</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2011,7 +2005,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2">
         <v>240</v>
@@ -2029,10 +2023,10 @@
         <v>29</v>
       </c>
       <c r="I28" s="2">
-        <v>37961</v>
+        <v>5674</v>
       </c>
       <c r="J28" s="2">
-        <v>1025</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2043,7 +2037,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2">
         <v>360</v>
@@ -2058,13 +2052,13 @@
         <v>2400</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I29" s="2">
-        <v>239904</v>
+        <v>18947</v>
       </c>
       <c r="J29" s="2">
-        <v>5758</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2075,7 +2069,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2">
         <v>500</v>
@@ -2090,13 +2084,13 @@
         <v>15600</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I30" s="2">
-        <v>1560399</v>
+        <v>70108</v>
       </c>
       <c r="J30" s="2">
-        <v>32768</v>
+        <v>841</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2107,7 +2101,7 @@
         <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2">
         <v>700</v>
@@ -2122,13 +2116,13 @@
         <v>182500</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I31" s="2">
-        <v>12121847</v>
+        <v>284960</v>
       </c>
       <c r="J31" s="2">
-        <v>218193</v>
+        <v>2850</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Character/CharacterStageConfig.xlsx
+++ b/Tables/Sources/gameplay/Character/CharacterStageConfig.xlsx
@@ -123,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -144,15 +144,33 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,86 +185,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,7 +207,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,9 +249,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,25 +303,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,157 +477,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,7 +516,55 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,64 +609,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,7 +1116,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1310,7 +1310,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="2">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="G6" s="2">
         <v>3</v>
@@ -1342,10 +1342,10 @@
         <v>79</v>
       </c>
       <c r="F7" s="2">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="G7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>26</v>
@@ -1374,10 +1374,10 @@
         <v>149</v>
       </c>
       <c r="F8" s="2">
-        <v>755</v>
+        <v>590</v>
       </c>
       <c r="G8" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>27</v>
@@ -1406,10 +1406,10 @@
         <v>239</v>
       </c>
       <c r="F9" s="2">
-        <v>2350</v>
+        <v>1716</v>
       </c>
       <c r="G9" s="2">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>28</v>
@@ -1438,10 +1438,10 @@
         <v>359</v>
       </c>
       <c r="F10" s="2">
-        <v>9200</v>
+        <v>5731</v>
       </c>
       <c r="G10" s="2">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>29</v>
@@ -1470,10 +1470,10 @@
         <v>499</v>
       </c>
       <c r="F11" s="2">
-        <v>48000</v>
+        <v>23437</v>
       </c>
       <c r="G11" s="2">
-        <v>960</v>
+        <v>469</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>24</v>
@@ -1499,13 +1499,13 @@
         <v>500</v>
       </c>
       <c r="E12" s="2">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="F12" s="2">
-        <v>312000</v>
+        <v>106916</v>
       </c>
       <c r="G12" s="2">
-        <v>6240</v>
+        <v>2138</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>30</v>
@@ -1528,25 +1528,25 @@
         <v>23</v>
       </c>
       <c r="D13" s="2">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="E13" s="2">
         <v>1000</v>
       </c>
       <c r="F13" s="2">
-        <v>3650000</v>
+        <v>590107</v>
       </c>
       <c r="G13" s="2">
-        <v>73000</v>
+        <v>11802</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I13" s="2">
-        <v>284960</v>
+        <v>264776</v>
       </c>
       <c r="J13" s="2">
-        <v>2850</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1598,10 +1598,10 @@
         <v>29</v>
       </c>
       <c r="F15" s="2">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="G15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>25</v>
@@ -1630,10 +1630,10 @@
         <v>79</v>
       </c>
       <c r="F16" s="2">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="G16" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>26</v>
@@ -1662,10 +1662,10 @@
         <v>149</v>
       </c>
       <c r="F17" s="2">
-        <v>1130</v>
+        <v>885</v>
       </c>
       <c r="G17" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>27</v>
@@ -1694,10 +1694,10 @@
         <v>239</v>
       </c>
       <c r="F18" s="2">
-        <v>3525</v>
+        <v>2574</v>
       </c>
       <c r="G18" s="2">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>28</v>
@@ -1726,10 +1726,10 @@
         <v>359</v>
       </c>
       <c r="F19" s="2">
-        <v>13800</v>
+        <v>8597</v>
       </c>
       <c r="G19" s="2">
-        <v>276</v>
+        <v>172</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>29</v>
@@ -1758,10 +1758,10 @@
         <v>499</v>
       </c>
       <c r="F20" s="2">
-        <v>72000</v>
+        <v>35156</v>
       </c>
       <c r="G20" s="2">
-        <v>1440</v>
+        <v>703</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>24</v>
@@ -1787,13 +1787,13 @@
         <v>500</v>
       </c>
       <c r="E21" s="2">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="F21" s="2">
-        <v>468000</v>
+        <v>160374</v>
       </c>
       <c r="G21" s="2">
-        <v>9360</v>
+        <v>3207</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>30</v>
@@ -1816,25 +1816,25 @@
         <v>31</v>
       </c>
       <c r="D22" s="2">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="E22" s="2">
         <v>1000</v>
       </c>
       <c r="F22" s="2">
-        <v>5475000</v>
+        <v>885161</v>
       </c>
       <c r="G22" s="2">
-        <v>109500</v>
+        <v>17703</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I22" s="2">
-        <v>284960</v>
+        <v>264776</v>
       </c>
       <c r="J22" s="2">
-        <v>2850</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1854,10 +1854,10 @@
         <v>9</v>
       </c>
       <c r="F23" s="2">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G23" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>24</v>
@@ -1886,10 +1886,10 @@
         <v>29</v>
       </c>
       <c r="F24" s="2">
-        <v>380</v>
+        <v>284</v>
       </c>
       <c r="G24" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>25</v>
@@ -1918,10 +1918,10 @@
         <v>79</v>
       </c>
       <c r="F25" s="2">
-        <v>720</v>
+        <v>484</v>
       </c>
       <c r="G25" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>26</v>
@@ -1950,10 +1950,10 @@
         <v>149</v>
       </c>
       <c r="F26" s="2">
-        <v>1887.5</v>
+        <v>1180</v>
       </c>
       <c r="G26" s="2">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>27</v>
@@ -1982,10 +1982,10 @@
         <v>239</v>
       </c>
       <c r="F27" s="2">
-        <v>5875</v>
+        <v>3432</v>
       </c>
       <c r="G27" s="2">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>28</v>
@@ -2014,10 +2014,10 @@
         <v>359</v>
       </c>
       <c r="F28" s="2">
-        <v>23000</v>
+        <v>11462</v>
       </c>
       <c r="G28" s="2">
-        <v>460</v>
+        <v>229</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>29</v>
@@ -2046,10 +2046,10 @@
         <v>499</v>
       </c>
       <c r="F29" s="2">
-        <v>120000</v>
+        <v>46874</v>
       </c>
       <c r="G29" s="2">
-        <v>2400</v>
+        <v>937</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>24</v>
@@ -2075,13 +2075,13 @@
         <v>500</v>
       </c>
       <c r="E30" s="2">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="F30" s="2">
-        <v>780000</v>
+        <v>213832</v>
       </c>
       <c r="G30" s="2">
-        <v>15600</v>
+        <v>4277</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>30</v>
@@ -2104,25 +2104,25 @@
         <v>32</v>
       </c>
       <c r="D31" s="2">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="E31" s="2">
         <v>1000</v>
       </c>
       <c r="F31" s="2">
-        <v>9125000</v>
+        <v>1180214</v>
       </c>
       <c r="G31" s="2">
-        <v>182500</v>
+        <v>23604</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I31" s="2">
-        <v>284960</v>
+        <v>264776</v>
       </c>
       <c r="J31" s="2">
-        <v>2850</v>
+        <v>2118</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Character/CharacterStageConfig.xlsx
+++ b/Tables/Sources/gameplay/Character/CharacterStageConfig.xlsx
@@ -124,9 +124,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -144,33 +144,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,9 +181,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,14 +212,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,40 +256,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,14 +287,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -303,6 +303,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -315,175 +345,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,11 +512,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,24 +568,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,17 +586,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,27 +609,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,7 +1116,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
